--- a/Examen I/1. Clase 20 marzo - Análisis de decisiones.xlsx
+++ b/Examen I/1. Clase 20 marzo - Análisis de decisiones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laguilar/Documents/GitHub/ucr/if-7200-i-2023/Examen I/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DB2B93-1959-B24D-A83A-5259AD7748E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6692C33A-E56B-954B-91C4-8554B6F4E1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-740" windowWidth="38400" windowHeight="21600" activeTab="8" xr2:uid="{2EB7F668-5FED-9643-B1B8-958BDCECA168}"/>
+    <workbookView xWindow="-38400" yWindow="-240" windowWidth="38400" windowHeight="21100" activeTab="8" xr2:uid="{2EB7F668-5FED-9643-B1B8-958BDCECA168}"/>
   </bookViews>
   <sheets>
     <sheet name="EJEMPLO" sheetId="1" r:id="rId1"/>
@@ -2171,7 +2171,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="A1:D6"/>
+      <selection sqref="A1:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2302,7 +2302,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:M6"/>
+      <selection sqref="A1:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2421,7 +2421,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="A1:D6"/>
+      <selection sqref="A1:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2552,7 +2552,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="A1:D6"/>
+      <selection sqref="A1:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2891,7 +2891,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="A1:D6"/>
+      <selection sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3027,7 +3027,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3202,7 +3202,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A2" sqref="A2:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
